--- a/regions/5/mshenebloba/mshenebloba_dziritadi machveneblebi.xlsx
+++ b/regions/5/mshenebloba/mshenebloba_dziritadi machveneblebi.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11730"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
@@ -146,6 +146,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -529,7 +530,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P28"/>
+  <dimension ref="A1:R28"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -538,7 +539,7 @@
     <col min="1" max="1" width="66.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>11</v>
       </c>
@@ -555,7 +556,7 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -570,7 +571,7 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="7">
         <v>2006</v>
@@ -617,8 +618,14 @@
       <c r="P3" s="6">
         <v>2020</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="Q3" s="6">
+        <v>2021</v>
+      </c>
+      <c r="R3" s="6">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A4" s="19" t="s">
         <v>0</v>
       </c>
@@ -667,8 +674,14 @@
       <c r="P4" s="8">
         <v>167.6</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="Q4" s="8">
+        <v>177.3</v>
+      </c>
+      <c r="R4" s="8">
+        <v>173.9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A5" s="19" t="s">
         <v>1</v>
       </c>
@@ -717,8 +730,14 @@
       <c r="P5" s="8">
         <v>181.3</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="Q5" s="8">
+        <v>186.4</v>
+      </c>
+      <c r="R5" s="8">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A6" s="19" t="s">
         <v>7</v>
       </c>
@@ -767,8 +786,14 @@
       <c r="P6" s="14">
         <v>1886</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="Q6" s="14">
+        <v>2115</v>
+      </c>
+      <c r="R6" s="14">
+        <v>2273</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A7" s="19" t="s">
         <v>8</v>
       </c>
@@ -817,8 +842,14 @@
       <c r="P7" s="14">
         <v>1804</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="Q7" s="14">
+        <v>2000</v>
+      </c>
+      <c r="R7" s="14">
+        <v>2062</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A8" s="19" t="s">
         <v>9</v>
       </c>
@@ -867,8 +898,14 @@
       <c r="P8" s="8">
         <v>1300</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="Q8" s="8">
+        <v>1122.9000000000001</v>
+      </c>
+      <c r="R8" s="8">
+        <v>1195.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A9" s="19" t="s">
         <v>2</v>
       </c>
@@ -917,8 +954,14 @@
       <c r="P9" s="8">
         <v>103.6</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="Q9" s="8">
+        <v>109.5</v>
+      </c>
+      <c r="R9" s="8">
+        <v>122.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A10" s="19" t="s">
         <v>5</v>
       </c>
@@ -967,8 +1010,14 @@
       <c r="P10" s="8">
         <v>28.6</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="Q10" s="8">
+        <v>27.4</v>
+      </c>
+      <c r="R10" s="8">
+        <v>30.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A11" s="19" t="s">
         <v>3</v>
       </c>
@@ -1017,8 +1066,14 @@
       <c r="P11" s="8">
         <v>77.599999999999994</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="Q11" s="8">
+        <v>76.900000000000006</v>
+      </c>
+      <c r="R11" s="8">
+        <v>73.8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A12" s="19" t="s">
         <v>6</v>
       </c>
@@ -1067,8 +1122,14 @@
       <c r="P12" s="8">
         <v>67</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="Q12" s="8">
+        <v>21.4</v>
+      </c>
+      <c r="R12" s="8">
+        <v>18.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A13" s="19" t="s">
         <v>4</v>
       </c>
@@ -1117,8 +1178,14 @@
       <c r="P13" s="8">
         <v>108.4</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q13" s="8">
+        <v>116.7</v>
+      </c>
+      <c r="R13" s="8">
+        <v>130.30000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="12"/>
       <c r="C14" s="12"/>
@@ -1135,7 +1202,7 @@
       <c r="N14" s="12"/>
       <c r="O14" s="12"/>
     </row>
-    <row r="16" spans="1:16" s="5" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" s="5" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A16" s="17" t="s">
         <v>10</v>
       </c>
